--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,664 +512,902 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>173.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4249</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0814</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9458</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>006972</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>36.57</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>860016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>860052</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>71.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>94.34</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2.45</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005965</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005966</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009336</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009337</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>平安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>95.78</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009611</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>兴全汇享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009612</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴全汇享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003900</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1438,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,25 +1468,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>009049</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>易方达高端制造混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>44.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>000594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>大摩进取优选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002305</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信风格轮动混合A</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007499</t>
+          <t>005402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>光大保德信风格轮动混合C</t>
+          <t>广发资源优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>18.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.12</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1406,25 +1734,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>010235</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>广发资源优选股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>交银施罗德科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519767</t>
+          <t>007994</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
+          <t>华夏中证500指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1612,15 +2010,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>92.63</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005402</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发资源优选股票A</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010235</t>
+          <t>002305</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发资源优选股票C</t>
+          <t>光大保德信风格轮动混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>007995</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>华夏中证500指数增强C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1770,26 +2228,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009049</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达高端制造混合</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2266,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1854,25 +2342,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>007499</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
+          <t>光大保德信风格轮动混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>85.61</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007994</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强A</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007995</t>
+          <t>009339</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华夏中证500指数增强C</t>
+          <t>万家民瑞祥和6个月持有期债券C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2529,4 +2530,1008 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3534,4 +3535,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德恒益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4047,4 +4048,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4056,7 +4057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4067,17 +4068,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4087,14 +4108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4103,14 +4146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.3</v>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4119,14 +4184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.09</v>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4135,13 +4222,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.800000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4265,7 +4266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4276,17 +4277,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4296,14 +4317,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4312,14 +4355,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4328,14 +4393,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.3</v>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4344,14 +4431,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.09</v>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4360,13 +4469,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.800000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002064-华峰化学.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4664,7 +4665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4675,17 +4676,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4695,14 +4716,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.61</v>
       </c>
     </row>
     <row r="3">
@@ -4711,14 +4754,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4727,14 +4792,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4743,14 +4830,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.3</v>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4759,14 +4868,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.09</v>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -4775,13 +4906,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.800000000000001</v>
       </c>
     </row>
